--- a/tests/test_plan_library_item.xlsx
+++ b/tests/test_plan_library_item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Desktop\Intermediate Software Development0315\8. Activities\Module_01\given_files\activity_1\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rrcca-my.sharepoint.com/personal/cboquia_rrc_ca/Documents/courses/Fall 2024/COMP-2327 - Intermediate Software Development/Activities/activity_1/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEAFC74-7B00-4693-B739-D8B9981D1A52}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
+    <workbookView xWindow="2145" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -249,13 +249,151 @@
   </si>
   <si>
     <t>Attribute  set to input values.</t>
+  </si>
+  <si>
+    <t>ValueError</t>
+  </si>
+  <si>
+    <t>item._LibraryItem__author = "Bruce Willis"</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <r>
+      <t>title = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+author = "Bruce Willis"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+genre = TRUE_CRIME</t>
+    </r>
+  </si>
+  <si>
+    <t>item._LibraryItem__genre = "TRUE_CRIME"</t>
+  </si>
+  <si>
+    <r>
+      <t>title = "book"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+author = "Bruce Willis"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+genre = TRUE_CRIME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>title = "book"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+author = ""</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+genre = TRUE_CRIME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>title = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book"
+author = "Bruce Willis"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+genre = ""</t>
+    </r>
+  </si>
+  <si>
+    <t>item._LibraryItem__title = "book"</t>
+  </si>
+  <si>
+    <t>LibraryItem("book", "Bruce Willis",0"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +448,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -710,6 +857,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADEBCC4-BB44-48CD-B9AB-1E2FD3EE0EEB}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1338,9 @@
         <v>21</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,8 +1355,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1217,8 +1374,12 @@
         <v>12</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1232,8 +1393,12 @@
         <v>13</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
@@ -1245,9 +1410,15 @@
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
@@ -1259,9 +1430,15 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -1273,9 +1450,15 @@
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -1405,9 +1588,10 @@
     <mergeCell ref="B26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tests/test_plan_library_item.xlsx
+++ b/tests/test_plan_library_item.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rrcca-my.sharepoint.com/personal/cboquia_rrc_ca/Documents/courses/Fall 2024/COMP-2327 - Intermediate Software Development/Activities/activity_1/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEAFC74-7B00-4693-B739-D8B9981D1A52}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D39CEFC4-4640-408C-82FE-8BDA19ABD8D8}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
+    <workbookView xWindow="345" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,81 +183,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+  <si>
+    <t>Software Development Team - Unit Test Plan</t>
+  </si>
+  <si>
+    <t>Developer:</t>
+  </si>
+  <si>
+    <t>Class Name:</t>
+  </si>
+  <si>
+    <t>LibraryItem</t>
+  </si>
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
+    <t>Method being Tested</t>
+  </si>
+  <si>
+    <t>Condition being Tested</t>
+  </si>
+  <si>
     <t>Preconditions</t>
   </si>
   <si>
+    <t>Method Inputs</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Class Name:</t>
-  </si>
-  <si>
-    <t>Developer:</t>
-  </si>
-  <si>
-    <t>Method being Tested</t>
-  </si>
-  <si>
-    <t>Add more rows as necessary</t>
-  </si>
-  <si>
-    <t>Software Development Team - Unit Test Plan</t>
-  </si>
-  <si>
     <t>__init__</t>
   </si>
   <si>
-    <t>Method Inputs</t>
-  </si>
-  <si>
-    <t>Condition being Tested</t>
+    <t>Attribute  set to input values.</t>
   </si>
   <si>
     <t>Exception raised when title is blank</t>
-  </si>
-  <si>
-    <t>Exception raised when author is blank</t>
-  </si>
-  <si>
-    <t>Exception raised when invalid Genre</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>returns title attribute</t>
-  </si>
-  <si>
-    <t>returns author attribute</t>
-  </si>
-  <si>
-    <t>returns Genre attribute</t>
-  </si>
-  <si>
-    <t>LibraryItem</t>
-  </si>
-  <si>
-    <t>Attribute  set to input values.</t>
-  </si>
-  <si>
-    <t>ValueError</t>
-  </si>
-  <si>
-    <t>item._LibraryItem__author = "Bruce Willis"</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <r>
@@ -290,37 +254,10 @@
     </r>
   </si>
   <si>
-    <t>item._LibraryItem__genre = "TRUE_CRIME"</t>
-  </si>
-  <si>
-    <r>
-      <t>title = "book"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-author = "Bruce Willis"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-genre = TRUE_CRIME</t>
-    </r>
+    <t>ValueError</t>
+  </si>
+  <si>
+    <t>Exception raised when author is blank</t>
   </si>
   <si>
     <r>
@@ -353,6 +290,9 @@
     </r>
   </si>
   <si>
+    <t>Exception raised when invalid Genre</t>
+  </si>
+  <si>
     <r>
       <t>title = "</t>
     </r>
@@ -383,10 +323,104 @@
     </r>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>returns title attribute</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>item._LibraryItem__title = "book"</t>
   </si>
   <si>
-    <t>LibraryItem("book", "Bruce Willis",0"</t>
+    <t>author</t>
+  </si>
+  <si>
+    <t>returns author attribute</t>
+  </si>
+  <si>
+    <t>item._LibraryItem__author = "Bruce Willis"</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>returns Genre attribute</t>
+  </si>
+  <si>
+    <t>item._LibraryItem__genre = "TRUE_CRIME"</t>
+  </si>
+  <si>
+    <t>Add more rows as necessary</t>
+  </si>
+  <si>
+    <t>Exception raised when item ID is not numeric</t>
+  </si>
+  <si>
+    <t>Exception raised when is borrowed is not bool</t>
+  </si>
+  <si>
+    <t>title = "book"
+author = "Bruce Willis"
+genre = TRUE_CRIME
+item_id = "1244"
+is_borrowed ="TRUE"</t>
+  </si>
+  <si>
+    <r>
+      <t>title = "book"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+author = "Bruce Willis"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+genre = TRUE_CRIME
+item_id = "one"
+is_borrowed ="TRUE"</t>
+    </r>
+  </si>
+  <si>
+    <t>title = "book"
+author = "Bruce Willis"
+genre = TRUE_CRIME
+item_id = "1244"
+is_borrowed ="blops"</t>
+  </si>
+  <si>
+    <t>item id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns item id attribute </t>
+  </si>
+  <si>
+    <t>LibraryItem("book", "Bruce Willis",TRUE_CRIME"</t>
+  </si>
+  <si>
+    <t>LibraryItem("book", "Bruce Willis",TRUE_CRIME, 1244, TRUE"</t>
+  </si>
+  <si>
+    <t>is_borrowed</t>
   </si>
 </sst>
 </file>
@@ -857,10 +891,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADEBCC4-BB44-48CD-B9AB-1E2FD3EE0EEB}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1310,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1289,17 +1319,17 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="18"/>
     </row>
@@ -1308,22 +1338,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,14 +1362,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -1349,17 +1379,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,17 +1398,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,17 +1417,17 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,19 +1435,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,19 +1455,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,57 +1475,85 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1572,7 +1630,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
